--- a/Put Portfolios/Weekly_OneSigma.xlsx
+++ b/Put Portfolios/Weekly_OneSigma.xlsx
@@ -469,16 +469,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-989436.730130323</v>
+        <v>-986487.1946236491</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>791465.5337993007</v>
+        <v>734084.2008958189</v>
       </c>
       <c r="E2" t="n">
-        <v>-197971.1963310223</v>
+        <v>-252402.9937278302</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-918762.6779781571</v>
+        <v>-917981.1394414512</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>720943.36690562</v>
+        <v>666686.3647989011</v>
       </c>
       <c r="E3" t="n">
-        <v>-197819.3110725371</v>
+        <v>-251294.77464255</v>
       </c>
     </row>
     <row r="4">
@@ -503,16 +503,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-848088.6258259912</v>
+        <v>-849475.0842592533</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>650639.1696966285</v>
+        <v>600090.3259902295</v>
       </c>
       <c r="E4" t="n">
-        <v>-197449.4561293627</v>
+        <v>-249384.7582690238</v>
       </c>
     </row>
     <row r="5">
@@ -520,16 +520,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-777414.5736738251</v>
+        <v>-780969.0290770555</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>580768.5694994406</v>
+        <v>534663.2156614213</v>
       </c>
       <c r="E5" t="n">
-        <v>-196646.0041743845</v>
+        <v>-246305.8134156342</v>
       </c>
     </row>
     <row r="6">
@@ -537,16 +537,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-706740.5215216592</v>
+        <v>-712462.9738948577</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>511673.1850485612</v>
+        <v>470837.4374942145</v>
       </c>
       <c r="E6" t="n">
-        <v>-195067.336473098</v>
+        <v>-241625.5364006432</v>
       </c>
     </row>
     <row r="7">
@@ -554,16 +554,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-636066.4693694933</v>
+        <v>-643956.9187126597</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>443838.3510984514</v>
+        <v>409087.584120686</v>
       </c>
       <c r="E7" t="n">
-        <v>-192228.1182710419</v>
+        <v>-234869.3345919737</v>
       </c>
     </row>
     <row r="8">
@@ -571,16 +571,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-565392.4172173274</v>
+        <v>-575450.8635304619</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>377886.9560262627</v>
+        <v>349899.9561725596</v>
       </c>
       <c r="E8" t="n">
-        <v>-187505.4611910647</v>
+        <v>-225550.9073579023</v>
       </c>
     </row>
     <row r="9">
@@ -588,16 +588,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-494718.3650651615</v>
+        <v>-506944.8083482641</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>314544.4778884375</v>
+        <v>293739.1107009032</v>
       </c>
       <c r="E9" t="n">
-        <v>-180173.887176724</v>
+        <v>-213205.6976473609</v>
       </c>
     </row>
     <row r="10">
@@ -605,16 +605,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-424044.3129129956</v>
+        <v>-438438.7531660662</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>254578.4065010276</v>
+        <v>241016.1185898034</v>
       </c>
       <c r="E10" t="n">
-        <v>-169465.906411968</v>
+        <v>-197422.6345762628</v>
       </c>
     </row>
     <row r="11">
@@ -622,16 +622,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-353370.2607608296</v>
+        <v>-369932.6979838684</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>198722.7334368841</v>
+        <v>192062.4915570318</v>
       </c>
       <c r="E11" t="n">
-        <v>-154647.5273239455</v>
+        <v>-177870.2064268365</v>
       </c>
     </row>
     <row r="12">
@@ -639,16 +639,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-282696.2086086637</v>
+        <v>-301426.6428016705</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147602.2738299376</v>
+        <v>147112.3927828812</v>
       </c>
       <c r="E12" t="n">
-        <v>-135093.9347787261</v>
+        <v>-154314.2500187893</v>
       </c>
     </row>
     <row r="13">
@@ -656,16 +656,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-212022.1564564978</v>
+        <v>-232920.5876194726</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>101671.1084646011</v>
+        <v>106294.1842087851</v>
       </c>
       <c r="E13" t="n">
-        <v>-110351.0479918967</v>
+        <v>-126626.4034106875</v>
       </c>
     </row>
     <row r="14">
@@ -673,16 +673,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-141348.1043043318</v>
+        <v>-164414.5324372748</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>61175.12967439709</v>
+        <v>69630.9418337122</v>
       </c>
       <c r="E14" t="n">
-        <v>-80172.97462993476</v>
+        <v>-94783.59060356255</v>
       </c>
     </row>
     <row r="15">
@@ -690,16 +690,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-70674.05215216592</v>
+        <v>-95908.47725507691</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>26142.4646260606</v>
+        <v>37048.51368633083</v>
       </c>
       <c r="E15" t="n">
-        <v>-44531.58752610533</v>
+        <v>-58859.96356874608</v>
       </c>
     </row>
     <row r="16">
@@ -707,16 +707,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-27402.42207287905</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-3600.4464440969</v>
+        <v>8389.090145303082</v>
       </c>
       <c r="E16" t="n">
-        <v>-3600.4464440969</v>
+        <v>-19013.33192757596</v>
       </c>
     </row>
     <row r="17">
@@ -724,16 +724,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>70674.05215216592</v>
+        <v>41103.63310931881</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-28393.59726264568</v>
+        <v>-16571.9225090484</v>
       </c>
       <c r="E17" t="n">
-        <v>42280.45488952025</v>
+        <v>24531.71060027041</v>
       </c>
     </row>
     <row r="18">
@@ -741,16 +741,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>141348.1043043318</v>
+        <v>109609.6882915167</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-48697.38019593699</v>
+        <v>-38107.78105537758</v>
       </c>
       <c r="E18" t="n">
-        <v>92650.72410839486</v>
+        <v>71501.90723613909</v>
       </c>
     </row>
     <row r="19">
@@ -758,16 +758,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>212022.1564564978</v>
+        <v>178115.7434737145</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-65043.93301208466</v>
+        <v>-56522.72737466717</v>
       </c>
       <c r="E19" t="n">
-        <v>146978.2234444131</v>
+        <v>121593.0160990474</v>
       </c>
     </row>
     <row r="20">
@@ -775,16 +775,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>282696.2086086637</v>
+        <v>246621.7986559124</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-77992.34955920413</v>
+        <v>-72135.982134334</v>
       </c>
       <c r="E20" t="n">
-        <v>204703.8590494596</v>
+        <v>174485.8165215784</v>
       </c>
     </row>
     <row r="21">
@@ -792,16 +792,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>353370.2607608296</v>
+        <v>315127.8538381102</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-88091.90628701888</v>
+        <v>-85268.17102380047</v>
       </c>
       <c r="E21" t="n">
-        <v>265278.3544738108</v>
+        <v>229859.6828143098</v>
       </c>
     </row>
     <row r="22">
@@ -809,16 +809,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>424044.3129129956</v>
+        <v>383633.9090203081</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-95855.15318595791</v>
+        <v>-96230.53198338202</v>
       </c>
       <c r="E22" t="n">
-        <v>328189.1597270377</v>
+        <v>287403.3770369261</v>
       </c>
     </row>
     <row r="23">
@@ -826,16 +826,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>494718.3650651615</v>
+        <v>452139.9642025059</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-101740.8649521363</v>
+        <v>-105316.9265230723</v>
       </c>
       <c r="E23" t="n">
-        <v>392977.5001130252</v>
+        <v>346823.0376794336</v>
       </c>
     </row>
     <row r="24">
@@ -843,16 +843,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>565392.4172173274</v>
+        <v>520646.0193847038</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-106145.6180653248</v>
+        <v>-112798.4490197068</v>
       </c>
       <c r="E24" t="n">
-        <v>459246.7991520026</v>
+        <v>407847.570364997</v>
       </c>
     </row>
     <row r="25">
@@ -860,16 +860,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>636066.4693694933</v>
+        <v>589152.0745669017</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-109402.1346999714</v>
+        <v>-118920.2882591517</v>
       </c>
       <c r="E25" t="n">
-        <v>526664.3346695219</v>
+        <v>470231.78630775</v>
       </c>
     </row>
     <row r="26">
@@ -877,16 +877,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>706740.5215216592</v>
+        <v>657658.1297490995</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-111782.3899742154</v>
+        <v>-123900.4302096907</v>
       </c>
       <c r="E26" t="n">
-        <v>594958.1315474438</v>
+        <v>533757.6995394088</v>
       </c>
     </row>
     <row r="27">
@@ -894,16 +894,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>777414.5736738251</v>
+        <v>726164.1849312974</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-113503.6532163212</v>
+        <v>-127929.7815428382</v>
       </c>
       <c r="E27" t="n">
-        <v>663910.9204575039</v>
+        <v>598234.4033884592</v>
       </c>
     </row>
   </sheetData>
@@ -957,16 +957,16 @@
         <v>30</v>
       </c>
       <c r="B2" t="n">
-        <v>-1009921.962638197</v>
+        <v>-1059392.721239566</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>727658.8358995123</v>
+        <v>724545.0519992039</v>
       </c>
       <c r="E2" t="n">
-        <v>-282263.1267386848</v>
+        <v>-334847.6692403622</v>
       </c>
     </row>
     <row r="3">
@@ -974,16 +974,16 @@
         <v>31</v>
       </c>
       <c r="B3" t="n">
-        <v>-963488.7689536823</v>
+        <v>-1016152.202005298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>682185.2088131269</v>
+        <v>683097.9277699067</v>
       </c>
       <c r="E3" t="n">
-        <v>-281303.5601405554</v>
+        <v>-333054.2742353914</v>
       </c>
     </row>
     <row r="4">
@@ -991,16 +991,16 @@
         <v>32</v>
       </c>
       <c r="B4" t="n">
-        <v>-917055.5752691675</v>
+        <v>-972911.6827710301</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>637107.7005388056</v>
+        <v>642155.138893269</v>
       </c>
       <c r="E4" t="n">
-        <v>-279947.874730362</v>
+        <v>-330756.5438777611</v>
       </c>
     </row>
     <row r="5">
@@ -1008,16 +1008,16 @@
         <v>33</v>
       </c>
       <c r="B5" t="n">
-        <v>-870622.3815846527</v>
+        <v>-929671.1635367621</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>592535.117127758</v>
+        <v>601802.3352078707</v>
       </c>
       <c r="E5" t="n">
-        <v>-278087.2644568947</v>
+        <v>-327868.8283288914</v>
       </c>
     </row>
     <row r="6">
@@ -1025,16 +1025,16 @@
         <v>34</v>
       </c>
       <c r="B6" t="n">
-        <v>-824189.1879001379</v>
+        <v>-886430.6443024941</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>548588.7157210282</v>
+        <v>562127.5337910734</v>
       </c>
       <c r="E6" t="n">
-        <v>-275600.4721791097</v>
+        <v>-324303.1105114208</v>
       </c>
     </row>
     <row r="7">
@@ -1042,16 +1042,16 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>-777755.994215623</v>
+        <v>-843190.1250682261</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>505399.5069557747</v>
+        <v>523219.2349251195</v>
       </c>
       <c r="E7" t="n">
-        <v>-272356.4872598483</v>
+        <v>-319970.8901431066</v>
       </c>
     </row>
     <row r="8">
@@ -1059,16 +1059,16 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>-731322.8005311083</v>
+        <v>-799949.6058339581</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>463104.8530750583</v>
+        <v>485164.5262281185</v>
       </c>
       <c r="E8" t="n">
-        <v>-268217.94745605</v>
+        <v>-314785.0796058396</v>
       </c>
     </row>
     <row r="9">
@@ -1076,16 +1076,16 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>-684889.6068465934</v>
+        <v>-756709.08659969</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>421844.5800560623</v>
+        <v>448047.2588923901</v>
       </c>
       <c r="E9" t="n">
-        <v>-263045.0267905311</v>
+        <v>-308661.8277072999</v>
       </c>
     </row>
     <row r="10">
@@ -1093,16 +1093,16 @@
         <v>38</v>
       </c>
       <c r="B10" t="n">
-        <v>-638456.4131620786</v>
+        <v>-713468.5673654221</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>381756.8541673368</v>
+        <v>411946.3680248273</v>
       </c>
       <c r="E10" t="n">
-        <v>-256699.5589947418</v>
+        <v>-301522.1993405949</v>
       </c>
     </row>
     <row r="11">
@@ -1110,16 +1110,16 @@
         <v>39</v>
       </c>
       <c r="B11" t="n">
-        <v>-592023.2194775639</v>
+        <v>-670228.048131154</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>342974.0788637117</v>
+        <v>376934.3941805614</v>
       </c>
       <c r="E11" t="n">
-        <v>-249049.1406138522</v>
+        <v>-293293.6539505927</v>
       </c>
     </row>
     <row r="12">
@@ -1127,16 +1127,16 @@
         <v>40</v>
       </c>
       <c r="B12" t="n">
-        <v>-545590.025793049</v>
+        <v>-626987.5288968862</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>305619.0496000045</v>
+        <v>343076.2469382317</v>
       </c>
       <c r="E12" t="n">
-        <v>-239970.9761930446</v>
+        <v>-283911.2819586545</v>
       </c>
     </row>
     <row r="13">
@@ -1144,16 +1144,16 @@
         <v>41</v>
       </c>
       <c r="B13" t="n">
-        <v>-499156.8321085342</v>
+        <v>-583747.009662618</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>269801.5671805114</v>
+        <v>310428.2351659563</v>
       </c>
       <c r="E13" t="n">
-        <v>-229355.2649280228</v>
+        <v>-273318.7744966617</v>
       </c>
     </row>
     <row r="14">
@@ -1161,16 +1161,16 @@
         <v>42</v>
       </c>
       <c r="B14" t="n">
-        <v>-452723.6384240194</v>
+        <v>-540506.4904283501</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>235615.6610826724</v>
+        <v>279037.3735526917</v>
       </c>
       <c r="E14" t="n">
-        <v>-217107.977341347</v>
+        <v>-261469.1168756584</v>
       </c>
     </row>
     <row r="15">
@@ -1178,16 +1178,16 @@
         <v>43</v>
       </c>
       <c r="B15" t="n">
-        <v>-406290.4447395046</v>
+        <v>-497265.9711940821</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>203137.5193787305</v>
+        <v>248940.9617887784</v>
       </c>
       <c r="E15" t="n">
-        <v>-203152.9253607741</v>
+        <v>-248325.0094053037</v>
       </c>
     </row>
     <row r="16">
@@ -1195,16 +1195,16 @@
         <v>44</v>
       </c>
       <c r="B16" t="n">
-        <v>-359857.2510549898</v>
+        <v>-454025.4519598141</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>172424.167330158</v>
+        <v>220166.421925206</v>
       </c>
       <c r="E16" t="n">
-        <v>-187433.0837248318</v>
+        <v>-233859.0300346081</v>
       </c>
     </row>
     <row r="17">
@@ -1212,16 +1212,16 @@
         <v>45</v>
       </c>
       <c r="B17" t="n">
-        <v>-313424.057370475</v>
+        <v>-410784.9327255461</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>143512.8871374684</v>
+        <v>192731.3711115633</v>
       </c>
       <c r="E17" t="n">
-        <v>-169911.1702330066</v>
+        <v>-218053.5616139828</v>
       </c>
     </row>
     <row r="18">
@@ -1229,16 +1229,16 @@
         <v>46</v>
       </c>
       <c r="B18" t="n">
-        <v>-266990.8636859602</v>
+        <v>-367544.4134912781</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>116421.32993119</v>
+        <v>166643.9010832651</v>
       </c>
       <c r="E18" t="n">
-        <v>-150569.5337547702</v>
+        <v>-200900.512408013</v>
       </c>
     </row>
     <row r="19">
@@ -1246,16 +1246,16 @@
         <v>47</v>
       </c>
       <c r="B19" t="n">
-        <v>-220557.6700014453</v>
+        <v>-324303.89425701</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>91148.23967170549</v>
+        <v>141903.0322586804</v>
       </c>
       <c r="E19" t="n">
-        <v>-129409.4303297398</v>
+        <v>-182400.8619983297</v>
       </c>
     </row>
     <row r="20">
@@ -1263,16 +1263,16 @@
         <v>48</v>
       </c>
       <c r="B20" t="n">
-        <v>-174124.4763169306</v>
+        <v>-281063.375022742</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>67674.6876836585</v>
+        <v>118499.30883208</v>
       </c>
       <c r="E20" t="n">
-        <v>-106449.7886332721</v>
+        <v>-162564.066190662</v>
       </c>
     </row>
     <row r="21">
@@ -1280,16 +1280,16 @@
         <v>49</v>
       </c>
       <c r="B21" t="n">
-        <v>-127691.2826324157</v>
+        <v>-237822.855788474</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>45965.70556369844</v>
+        <v>96415.50146790323</v>
       </c>
       <c r="E21" t="n">
-        <v>-81725.57706871729</v>
+        <v>-141407.3543205708</v>
       </c>
     </row>
     <row r="22">
@@ -1297,16 +1297,16 @@
         <v>50</v>
       </c>
       <c r="B22" t="n">
-        <v>-81258.08894790092</v>
+        <v>-194582.336554206</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>25972.20193442844</v>
+        <v>75627.38575541091</v>
       </c>
       <c r="E22" t="n">
-        <v>-55285.88701347248</v>
+        <v>-118954.9507987951</v>
       </c>
     </row>
     <row r="23">
@@ -1314,16 +1314,16 @@
         <v>51</v>
       </c>
       <c r="B23" t="n">
-        <v>-34824.8952633861</v>
+        <v>-151341.817319938</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>7633.053320719846</v>
+        <v>56104.5671190914</v>
       </c>
       <c r="E23" t="n">
-        <v>-27191.84194266626</v>
+        <v>-95237.25020084664</v>
       </c>
     </row>
     <row r="24">
@@ -1331,16 +1331,16 @@
         <v>52</v>
       </c>
       <c r="B24" t="n">
-        <v>11608.2984211287</v>
+        <v>-108101.29808567</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-9122.730517747761</v>
+        <v>37811.32607683008</v>
       </c>
       <c r="E24" t="n">
-        <v>2485.567903380941</v>
+        <v>-70289.97200883992</v>
       </c>
     </row>
     <row r="25">
@@ -1348,16 +1348,16 @@
         <v>53</v>
       </c>
       <c r="B25" t="n">
-        <v>58041.49210564351</v>
+        <v>-64860.77885140201</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-24373.85293039525</v>
+        <v>20707.46131333985</v>
       </c>
       <c r="E25" t="n">
-        <v>33667.63917524826</v>
+        <v>-44153.31753806217</v>
       </c>
     </row>
     <row r="26">
@@ -1365,16 +1365,16 @@
         <v>54</v>
       </c>
       <c r="B26" t="n">
-        <v>104474.6857901583</v>
+        <v>-21620.259617134</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-38204.65912336058</v>
+        <v>4749.111756096049</v>
       </c>
       <c r="E26" t="n">
-        <v>66270.02666679776</v>
+        <v>-16871.14786103795</v>
       </c>
     </row>
     <row r="27">
@@ -1382,16 +1382,16 @@
         <v>55</v>
       </c>
       <c r="B27" t="n">
-        <v>150907.8794746731</v>
+        <v>21620.259617134</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-50703.20210623208</v>
+        <v>-10110.45748145113</v>
       </c>
       <c r="E27" t="n">
-        <v>100204.677368441</v>
+        <v>11509.80213568288</v>
       </c>
     </row>
     <row r="28">
@@ -1399,16 +1399,16 @@
         <v>56</v>
       </c>
       <c r="B28" t="n">
-        <v>197341.0731591879</v>
+        <v>64860.77885140201</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-61959.4852261586</v>
+        <v>-23920.11692975816</v>
       </c>
       <c r="E28" t="n">
-        <v>135381.5879330293</v>
+        <v>40940.66192164386</v>
       </c>
     </row>
     <row r="29">
@@ -1416,16 +1416,16 @@
         <v>57</v>
       </c>
       <c r="B29" t="n">
-        <v>243774.2668437028</v>
+        <v>108101.29808567</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-72063.90655109355</v>
+        <v>-36730.19079329645</v>
       </c>
       <c r="E29" t="n">
-        <v>171710.3602926092</v>
+        <v>71371.10729237355</v>
       </c>
     </row>
     <row r="30">
@@ -1433,16 +1433,16 @@
         <v>58</v>
       </c>
       <c r="B30" t="n">
-        <v>290207.4605282175</v>
+        <v>151341.817319938</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-81105.91800317446</v>
+        <v>-48591.83673920041</v>
       </c>
       <c r="E30" t="n">
-        <v>209101.5425250431</v>
+        <v>102749.9805807376</v>
       </c>
     </row>
     <row r="31">
@@ -1450,16 +1450,16 @@
         <v>59</v>
       </c>
       <c r="B31" t="n">
-        <v>336640.6542127323</v>
+        <v>194582.336554206</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-89172.90180138573</v>
+        <v>-59556.49051141283</v>
       </c>
       <c r="E31" t="n">
-        <v>247467.7524113466</v>
+        <v>135025.8460427932</v>
       </c>
     </row>
     <row r="32">
@@ -1467,16 +1467,16 @@
         <v>60</v>
       </c>
       <c r="B32" t="n">
-        <v>383073.8478972472</v>
+        <v>237822.855788474</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-96349.25851670653</v>
+        <v>-69675.3763325551</v>
       </c>
       <c r="E32" t="n">
-        <v>286724.5893805407</v>
+        <v>168147.4794559189</v>
       </c>
     </row>
     <row r="33">
@@ -1484,16 +1484,16 @@
         <v>61</v>
       </c>
       <c r="B33" t="n">
-        <v>429507.041581762</v>
+        <v>281063.375022742</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-102715.6948002868</v>
+        <v>-78999.08232866968</v>
       </c>
       <c r="E33" t="n">
-        <v>326791.3467814752</v>
+        <v>202064.2926940724</v>
       </c>
     </row>
     <row r="34">
@@ -1501,16 +1501,16 @@
         <v>62</v>
       </c>
       <c r="B34" t="n">
-        <v>475940.2352662768</v>
+        <v>324303.89425701</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-108348.6944467311</v>
+        <v>-87577.19884061543</v>
       </c>
       <c r="E34" t="n">
-        <v>367591.5408195457</v>
+        <v>236726.6954163946</v>
       </c>
     </row>
     <row r="35">
@@ -1518,16 +1518,16 @@
         <v>63</v>
       </c>
       <c r="B35" t="n">
-        <v>522373.4289507916</v>
+        <v>367544.4134912781</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-113320.1536721612</v>
+        <v>-95458.01643944897</v>
       </c>
       <c r="E35" t="n">
-        <v>409053.2752786304</v>
+        <v>272086.3970518291</v>
       </c>
     </row>
     <row r="36">
@@ -1535,16 +1535,16 @@
         <v>64</v>
       </c>
       <c r="B36" t="n">
-        <v>568806.6226353064</v>
+        <v>410784.9327255461</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-117697.1600636151</v>
+        <v>-102688.279705813</v>
       </c>
       <c r="E36" t="n">
-        <v>451109.4625716914</v>
+        <v>308096.653019733</v>
       </c>
     </row>
     <row r="37">
@@ -1552,16 +1552,16 @@
         <v>65</v>
       </c>
       <c r="B37" t="n">
-        <v>615239.8163198213</v>
+        <v>454025.4519598141</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-121541.8943306236</v>
+        <v>-109312.9923269584</v>
       </c>
       <c r="E37" t="n">
-        <v>493697.9219891977</v>
+        <v>344712.4596328557</v>
       </c>
     </row>
     <row r="38">
@@ -1569,16 +1569,16 @@
         <v>66</v>
       </c>
       <c r="B38" t="n">
-        <v>661673.010004336</v>
+        <v>497265.9711940821</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-124911.634511237</v>
+        <v>-115375.2687713321</v>
       </c>
       <c r="E38" t="n">
-        <v>536761.375493099</v>
+        <v>381890.7024227501</v>
       </c>
     </row>
     <row r="39">
@@ -1586,16 +1586,16 @@
         <v>67</v>
       </c>
       <c r="B39" t="n">
-        <v>708106.2036888509</v>
+        <v>540506.4904283501</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-127858.8434258984</v>
+        <v>-120916.2276828541</v>
       </c>
       <c r="E39" t="n">
-        <v>580247.3602629525</v>
+        <v>419590.262745496</v>
       </c>
     </row>
     <row r="40">
@@ -1603,16 +1603,16 @@
         <v>68</v>
       </c>
       <c r="B40" t="n">
-        <v>754539.3973733657</v>
+        <v>583747.009662618</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-130431.3217349653</v>
+        <v>-125974.9221608018</v>
       </c>
       <c r="E40" t="n">
-        <v>624108.0756384004</v>
+        <v>457772.0875018163</v>
       </c>
     </row>
     <row r="41">
@@ -1620,16 +1620,16 @@
         <v>69</v>
       </c>
       <c r="B41" t="n">
-        <v>800972.5910578805</v>
+        <v>626987.5288968862</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-132672.4107728658</v>
+        <v>-130588.3022256973</v>
       </c>
       <c r="E41" t="n">
-        <v>668300.1802850147</v>
+        <v>496399.2266711888</v>
       </c>
     </row>
     <row r="42">
@@ -1637,16 +1637,16 @@
         <v>70</v>
       </c>
       <c r="B42" t="n">
-        <v>847405.7847423953</v>
+        <v>670228.048131154</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-134621.2312690145</v>
+        <v>-134791.2049892584</v>
       </c>
       <c r="E42" t="n">
-        <v>712784.5534733809</v>
+        <v>535436.8431418957</v>
       </c>
     </row>
     <row r="43">
@@ -1654,16 +1654,16 @@
         <v>71</v>
       </c>
       <c r="B43" t="n">
-        <v>893838.97842691</v>
+        <v>713468.5673654221</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-136312.9460178571</v>
+        <v>-138616.3683236645</v>
       </c>
       <c r="E43" t="n">
-        <v>757526.0324090528</v>
+        <v>574852.1990417577</v>
       </c>
     </row>
     <row r="44">
@@ -1671,16 +1671,16 @@
         <v>72</v>
       </c>
       <c r="B44" t="n">
-        <v>940272.172111425</v>
+        <v>756709.08659969</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-137779.036449749</v>
+        <v>-142094.4641420589</v>
       </c>
       <c r="E44" t="n">
-        <v>802493.1356616759</v>
+        <v>614614.6224576312</v>
       </c>
     </row>
     <row r="45">
@@ -1688,16 +1688,16 @@
         <v>73</v>
       </c>
       <c r="B45" t="n">
-        <v>986705.3657959397</v>
+        <v>799949.6058339581</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-139047.5848259568</v>
+        <v>-145254.1477416438</v>
       </c>
       <c r="E45" t="n">
-        <v>847657.780969983</v>
+        <v>654695.4580923143</v>
       </c>
     </row>
     <row r="46">
@@ -1705,16 +1705,16 @@
         <v>74</v>
       </c>
       <c r="B46" t="n">
-        <v>1033138.559480454</v>
+        <v>843190.1250682261</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-140143.5553995687</v>
+        <v>-148122.1200095342</v>
       </c>
       <c r="E46" t="n">
-        <v>892995.0040808857</v>
+        <v>695068.005058692</v>
       </c>
     </row>
     <row r="47">
@@ -1722,16 +1722,16 @@
         <v>75</v>
       </c>
       <c r="B47" t="n">
-        <v>1079571.753164969</v>
+        <v>886430.6443024941</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-141089.0693296423</v>
+        <v>-150723.1996390093</v>
       </c>
       <c r="E47" t="n">
-        <v>938482.6838353272</v>
+        <v>735707.4446634848</v>
       </c>
     </row>
     <row r="48">
@@ -1739,16 +1739,16 @@
         <v>76</v>
       </c>
       <c r="B48" t="n">
-        <v>1126004.946849484</v>
+        <v>929671.1635367621</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-141903.6694010176</v>
+        <v>-153080.4028417628</v>
       </c>
       <c r="E48" t="n">
-        <v>984101.2774484666</v>
+        <v>776590.7606949994</v>
       </c>
     </row>
     <row r="49">
@@ -1756,16 +1756,16 @@
         <v>77</v>
       </c>
       <c r="B49" t="n">
-        <v>1172438.140533999</v>
+        <v>972911.6827710301</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-142604.5716883539</v>
+        <v>-155215.0283642087</v>
       </c>
       <c r="E49" t="n">
-        <v>1029833.568845645</v>
+        <v>817696.6544068215</v>
       </c>
     </row>
     <row r="50">
@@ -1773,16 +1773,16 @@
         <v>78</v>
       </c>
       <c r="B50" t="n">
-        <v>1218871.334218514</v>
+        <v>1016152.202005298</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-143206.9022182488</v>
+        <v>-157146.7459185625</v>
       </c>
       <c r="E50" t="n">
-        <v>1075664.432000265</v>
+        <v>859005.4560867356</v>
       </c>
     </row>
     <row r="51">
@@ -1790,16 +1790,16 @@
         <v>79</v>
       </c>
       <c r="B51" t="n">
-        <v>1265304.527903029</v>
+        <v>1059392.721239566</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-143723.9174401409</v>
+        <v>-158893.6864195577</v>
       </c>
       <c r="E51" t="n">
-        <v>1121580.610462888</v>
+        <v>900499.0348200084</v>
       </c>
     </row>
     <row r="52">
@@ -1807,16 +1807,16 @@
         <v>80</v>
       </c>
       <c r="B52" t="n">
-        <v>1311737.721587543</v>
+        <v>1102633.240473834</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-144167.2079301249</v>
+        <v>-160472.5326737658</v>
       </c>
       <c r="E52" t="n">
-        <v>1167570.513657419</v>
+        <v>942160.7078000682</v>
       </c>
     </row>
     <row r="53">
@@ -1824,16 +1824,16 @@
         <v>81</v>
       </c>
       <c r="B53" t="n">
-        <v>1358170.915272058</v>
+        <v>1145873.759708102</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-144546.8852381727</v>
+        <v>-161898.6093999511</v>
       </c>
       <c r="E53" t="n">
-        <v>1213624.030033886</v>
+        <v>983975.1503081513</v>
       </c>
     </row>
     <row r="54">
@@ -1841,16 +1841,16 @@
         <v>82</v>
       </c>
       <c r="B54" t="n">
-        <v>1404604.108956573</v>
+        <v>1189114.27894237</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-144871.7521649936</v>
+        <v>-163185.9716659356</v>
       </c>
       <c r="E54" t="n">
-        <v>1259732.356791579</v>
+        <v>1025928.307276434</v>
       </c>
     </row>
     <row r="55">
@@ -1858,16 +1858,16 @@
         <v>83</v>
       </c>
       <c r="B55" t="n">
-        <v>1451037.302641088</v>
+        <v>1232354.798176638</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-145149.4570360676</v>
+        <v>-164347.4910107443</v>
       </c>
       <c r="E55" t="n">
-        <v>1305887.84560502</v>
+        <v>1068007.307165894</v>
       </c>
     </row>
     <row r="56">
@@ -1875,16 +1875,16 @@
         <v>84</v>
       </c>
       <c r="B56" t="n">
-        <v>1497470.496325603</v>
+        <v>1275595.317410906</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-145386.6327422312</v>
+        <v>-165394.9386816123</v>
       </c>
       <c r="E56" t="n">
-        <v>1352083.863583372</v>
+        <v>1110200.378729294</v>
       </c>
     </row>
     <row r="57">
@@ -1892,16 +1892,16 @@
         <v>85</v>
       </c>
       <c r="B57" t="n">
-        <v>1543903.690010117</v>
+        <v>1318835.836645174</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-145589.021452445</v>
+        <v>-166339.0655550325</v>
       </c>
       <c r="E57" t="n">
-        <v>1398314.668557672</v>
+        <v>1152496.771090142</v>
       </c>
     </row>
     <row r="58">
@@ -1909,16 +1909,16 @@
         <v>86</v>
       </c>
       <c r="B58" t="n">
-        <v>1590336.883694632</v>
+        <v>1362076.355879442</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-145761.5859873583</v>
+        <v>-167189.6784311579</v>
       </c>
       <c r="E58" t="n">
-        <v>1444575.297707274</v>
+        <v>1194886.677448284</v>
       </c>
     </row>
     <row r="59">
@@ -1926,16 +1926,16 @@
         <v>87</v>
       </c>
       <c r="B59" t="n">
-        <v>1636770.077379147</v>
+        <v>1405316.87511371</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-145908.6088828355</v>
+        <v>-167955.7124931188</v>
       </c>
       <c r="E59" t="n">
-        <v>1490861.468496311</v>
+        <v>1237361.162620591</v>
       </c>
     </row>
     <row r="60">
@@ -1943,16 +1943,16 @@
         <v>88</v>
       </c>
       <c r="B60" t="n">
-        <v>1683203.271063662</v>
+        <v>1448557.394347978</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-146033.780180116</v>
+        <v>-168645.2998089744</v>
       </c>
       <c r="E60" t="n">
-        <v>1537169.490883546</v>
+        <v>1279912.094539004</v>
       </c>
     </row>
     <row r="61">
@@ -1960,16 +1960,16 @@
         <v>89</v>
       </c>
       <c r="B61" t="n">
-        <v>1729636.464748177</v>
+        <v>1491797.913582246</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-146140.2749616483</v>
+        <v>-169265.8338257074</v>
       </c>
       <c r="E61" t="n">
-        <v>1583496.189786528</v>
+        <v>1322532.079756539</v>
       </c>
     </row>
     <row r="62">
@@ -1977,16 +1977,16 @@
         <v>90</v>
       </c>
       <c r="B62" t="n">
-        <v>1776069.658432692</v>
+        <v>1535038.432816514</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-146230.8216155433</v>
+        <v>-169824.0298635971</v>
       </c>
       <c r="E62" t="n">
-        <v>1629838.836817148</v>
+        <v>1365214.402952917</v>
       </c>
     </row>
   </sheetData>
@@ -2040,16 +2040,16 @@
         <v>30</v>
       </c>
       <c r="B2" t="n">
-        <v>-1306195.831971614</v>
+        <v>-1354932.909375169</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1063421.543640609</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-242774.2883310055</v>
+        <v>-1354932.909375169</v>
       </c>
     </row>
     <row r="3">
@@ -2057,16 +2057,16 @@
         <v>31</v>
       </c>
       <c r="B3" t="n">
-        <v>-1269638.433931547</v>
+        <v>-1321543.729745422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1027163.045205194</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-242475.3887263532</v>
+        <v>-1321543.729745422</v>
       </c>
     </row>
     <row r="4">
@@ -2074,16 +2074,16 @@
         <v>32</v>
       </c>
       <c r="B4" t="n">
-        <v>-1233081.035891479</v>
+        <v>-1288154.550115674</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>990905.847274318</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-242175.1886171614</v>
+        <v>-1288154.550115674</v>
       </c>
     </row>
     <row r="5">
@@ -2091,16 +2091,16 @@
         <v>33</v>
       </c>
       <c r="B5" t="n">
-        <v>-1196523.637851412</v>
+        <v>-1254765.370485926</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>954651.1541647321</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-241872.4836866796</v>
+        <v>-1254765.370485926</v>
       </c>
     </row>
     <row r="6">
@@ -2108,16 +2108,16 @@
         <v>34</v>
       </c>
       <c r="B6" t="n">
-        <v>-1159966.239811344</v>
+        <v>-1221376.190856178</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>918401.0463247709</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-241565.1934865732</v>
+        <v>-1221376.190856178</v>
       </c>
     </row>
     <row r="7">
@@ -2125,16 +2125,16 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>-1123408.841771276</v>
+        <v>-1187987.01122643</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>882158.9471237235</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-241249.894647553</v>
+        <v>-1187987.01122643</v>
       </c>
     </row>
     <row r="8">
@@ -2142,16 +2142,16 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>-1086851.443731209</v>
+        <v>-1154597.831596682</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>845930.2408795296</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-240921.2028516792</v>
+        <v>-1154597.831596682</v>
       </c>
     </row>
     <row r="9">
@@ -2159,16 +2159,16 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>-1050294.045691141</v>
+        <v>-1121208.651966934</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>809723.0471803866</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-240570.9985107546</v>
+        <v>-1121208.651966934</v>
       </c>
     </row>
     <row r="10">
@@ -2176,16 +2176,16 @@
         <v>38</v>
       </c>
       <c r="B10" t="n">
-        <v>-1013736.647651074</v>
+        <v>-1087819.472337186</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>773549.1386398252</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-240187.5090112487</v>
+        <v>-1087819.472337186</v>
       </c>
     </row>
     <row r="11">
@@ -2193,16 +2193,16 @@
         <v>39</v>
       </c>
       <c r="B11" t="n">
-        <v>-977179.2496110062</v>
+        <v>-1054430.292707438</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>737424.9678099739</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-239754.2818010324</v>
+        <v>-1054430.292707438</v>
       </c>
     </row>
     <row r="12">
@@ -2210,16 +2210,16 @@
         <v>40</v>
       </c>
       <c r="B12" t="n">
-        <v>-940621.8515709386</v>
+        <v>-1021041.11307769</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>701372.7467732466</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-239249.104797692</v>
+        <v>-1021041.11307769</v>
       </c>
     </row>
     <row r="13">
@@ -2227,16 +2227,16 @@
         <v>41</v>
       </c>
       <c r="B13" t="n">
-        <v>-904064.4535308711</v>
+        <v>-987651.9334479426</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>665421.5032293069</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-238642.9503015642</v>
+        <v>-987651.9334479426</v>
       </c>
     </row>
     <row r="14">
@@ -2244,16 +2244,16 @@
         <v>42</v>
       </c>
       <c r="B14" t="n">
-        <v>-867507.0554908034</v>
+        <v>-954262.7538181947</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>629608.0229802059</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-237899.0325105975</v>
+        <v>-954262.7538181947</v>
       </c>
     </row>
     <row r="15">
@@ -2261,16 +2261,16 @@
         <v>43</v>
       </c>
       <c r="B15" t="n">
-        <v>-830949.6574507359</v>
+        <v>-920873.5741884467</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>593977.5832675083</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-236972.0741832276</v>
+        <v>-920873.5741884467</v>
       </c>
     </row>
     <row r="16">
@@ -2278,16 +2278,16 @@
         <v>44</v>
       </c>
       <c r="B16" t="n">
-        <v>-794392.2594106684</v>
+        <v>-887484.3945586988</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>558584.3859930222</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-235807.8734176462</v>
+        <v>-887484.3945586988</v>
       </c>
     </row>
     <row r="17">
@@ -2295,16 +2295,16 @@
         <v>45</v>
       </c>
       <c r="B17" t="n">
-        <v>-757834.8613706008</v>
+        <v>-854095.214928951</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>523491.6146200097</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-234343.246750591</v>
+        <v>-854095.214928951</v>
       </c>
     </row>
     <row r="18">
@@ -2312,16 +2312,16 @@
         <v>46</v>
       </c>
       <c r="B18" t="n">
-        <v>-721277.4633305332</v>
+        <v>-820706.0352992031</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>488771.06223745</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-232506.4010930833</v>
+        <v>-820706.0352992031</v>
       </c>
     </row>
     <row r="19">
@@ -2329,16 +2329,16 @@
         <v>47</v>
       </c>
       <c r="B19" t="n">
-        <v>-684720.0652904657</v>
+        <v>-787316.8556694551</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>454502.3084028083</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-230217.7568876575</v>
+        <v>-787316.8556694551</v>
       </c>
     </row>
     <row r="20">
@@ -2346,16 +2346,16 @@
         <v>48</v>
       </c>
       <c r="B20" t="n">
-        <v>-648162.6672503981</v>
+        <v>-753927.6760397073</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>420771.4556886241</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-227391.211561774</v>
+        <v>-753927.6760397073</v>
       </c>
     </row>
     <row r="21">
@@ -2363,16 +2363,16 @@
         <v>49</v>
       </c>
       <c r="B21" t="n">
-        <v>-611605.2692103304</v>
+        <v>-720538.4964099595</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>387669.4697812797</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>-223935.7994290508</v>
+        <v>-720538.4964099595</v>
       </c>
     </row>
     <row r="22">
@@ -2380,16 +2380,16 @@
         <v>50</v>
       </c>
       <c r="B22" t="n">
-        <v>-575047.871170263</v>
+        <v>-687149.3167802115</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>355290.1961620271</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-219757.6750082359</v>
+        <v>-687149.3167802115</v>
       </c>
     </row>
     <row r="23">
@@ -2397,16 +2397,16 @@
         <v>51</v>
       </c>
       <c r="B23" t="n">
-        <v>-538490.4731301954</v>
+        <v>-653760.1371504636</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>323728.1491143097</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-214762.3240158857</v>
+        <v>-653760.1371504636</v>
       </c>
     </row>
     <row r="24">
@@ -2414,16 +2414,16 @@
         <v>52</v>
       </c>
       <c r="B24" t="n">
-        <v>-501933.0750901279</v>
+        <v>-620370.9575207158</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>293076.1832303961</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>-208856.8918597318</v>
+        <v>-620370.9575207158</v>
       </c>
     </row>
     <row r="25">
@@ -2431,16 +2431,16 @@
         <v>53</v>
       </c>
       <c r="B25" t="n">
-        <v>-465375.6770500603</v>
+        <v>-586981.7778909679</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>263423.1629476352</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-201952.5141024251</v>
+        <v>-586981.7778909679</v>
       </c>
     </row>
     <row r="26">
@@ -2448,16 +2448,16 @@
         <v>54</v>
       </c>
       <c r="B26" t="n">
-        <v>-428818.2790099927</v>
+        <v>-553592.5982612199</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>234851.7421434456</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-193966.5368665471</v>
+        <v>-553592.5982612199</v>
       </c>
     </row>
     <row r="27">
@@ -2465,16 +2465,16 @@
         <v>55</v>
       </c>
       <c r="B27" t="n">
-        <v>-392260.8809699251</v>
+        <v>-520203.4186314721</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>207436.3545191755</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>-184824.5264507496</v>
+        <v>-520203.4186314721</v>
       </c>
     </row>
     <row r="28">
@@ -2482,16 +2482,16 @@
         <v>56</v>
       </c>
       <c r="B28" t="n">
-        <v>-355703.4829298576</v>
+        <v>-486814.2390017241</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>181241.4980827449</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-174461.9848471127</v>
+        <v>-486814.2390017241</v>
       </c>
     </row>
     <row r="29">
@@ -2499,16 +2499,16 @@
         <v>57</v>
       </c>
       <c r="B29" t="n">
-        <v>-319146.08488979</v>
+        <v>-453425.0593719763</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>156320.375525137</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-162825.709364653</v>
+        <v>-453425.0593719763</v>
       </c>
     </row>
     <row r="30">
@@ -2516,16 +2516,16 @@
         <v>58</v>
       </c>
       <c r="B30" t="n">
-        <v>-282588.6868497225</v>
+        <v>-420035.8797422284</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>132713.9287936912</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>-149874.7580560313</v>
+        <v>-420035.8797422284</v>
       </c>
     </row>
     <row r="31">
@@ -2533,16 +2533,16 @@
         <v>59</v>
       </c>
       <c r="B31" t="n">
-        <v>-246031.2888096549</v>
+        <v>-386646.7001124805</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>110450.2826814211</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-135581.0061282338</v>
+        <v>-386646.7001124805</v>
       </c>
     </row>
     <row r="32">
@@ -2550,16 +2550,16 @@
         <v>60</v>
       </c>
       <c r="B32" t="n">
-        <v>-209473.8907695873</v>
+        <v>-353257.5204827326</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>89544.59046397021</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-119929.3003056171</v>
+        <v>-353257.5204827326</v>
       </c>
     </row>
     <row r="33">
@@ -2567,16 +2567,16 @@
         <v>61</v>
       </c>
       <c r="B33" t="n">
-        <v>-172916.4927295198</v>
+        <v>-319868.3408529848</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>69999.2558107606</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>-102917.2369187592</v>
+        <v>-319868.3408529848</v>
       </c>
     </row>
     <row r="34">
@@ -2584,16 +2584,16 @@
         <v>62</v>
       </c>
       <c r="B34" t="n">
-        <v>-136359.0946894522</v>
+        <v>-286479.1612232369</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>51804.49021748285</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-84554.60447196933</v>
+        <v>-286479.1612232369</v>
       </c>
     </row>
     <row r="35">
@@ -2601,16 +2601,16 @@
         <v>63</v>
       </c>
       <c r="B35" t="n">
-        <v>-99801.6966493846</v>
+        <v>-253089.9815934889</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>34939.15446292875</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-64862.54218645585</v>
+        <v>-253089.9815934889</v>
       </c>
     </row>
     <row r="36">
@@ -2618,16 +2618,16 @@
         <v>64</v>
       </c>
       <c r="B36" t="n">
-        <v>-63244.29860931703</v>
+        <v>-219700.8019637411</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>19371.82610924447</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>-43872.47250007256</v>
+        <v>-219700.8019637411</v>
       </c>
     </row>
     <row r="37">
@@ -2635,16 +2635,16 @@
         <v>65</v>
       </c>
       <c r="B37" t="n">
-        <v>-26686.90056924947</v>
+        <v>-186311.6223339932</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>5062.032555218737</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>-21624.86801403073</v>
+        <v>-186311.6223339932</v>
       </c>
     </row>
     <row r="38">
@@ -2652,16 +2652,16 @@
         <v>66</v>
       </c>
       <c r="B38" t="n">
-        <v>9870.497470818098</v>
+        <v>-152922.4427042453</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-8038.409893741336</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1832.087577076762</v>
+        <v>-152922.4427042453</v>
       </c>
     </row>
     <row r="39">
@@ -2669,16 +2669,16 @@
         <v>67</v>
       </c>
       <c r="B39" t="n">
-        <v>46427.89551088566</v>
+        <v>-119533.2630744974</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-19984.00670784042</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>26443.88880304524</v>
+        <v>-119533.2630744974</v>
       </c>
     </row>
     <row r="40">
@@ -2686,16 +2686,16 @@
         <v>68</v>
       </c>
       <c r="B40" t="n">
-        <v>82985.29355095324</v>
+        <v>-86144.0834447495</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-30834.19546618847</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>52151.09808476477</v>
+        <v>-86144.0834447495</v>
       </c>
     </row>
     <row r="41">
@@ -2703,16 +2703,16 @@
         <v>69</v>
       </c>
       <c r="B41" t="n">
-        <v>119542.6915910208</v>
+        <v>-52754.90381500161</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-40651.99847372025</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>78890.69311730054</v>
+        <v>-52754.90381500161</v>
       </c>
     </row>
     <row r="42">
@@ -2720,16 +2720,16 @@
         <v>70</v>
       </c>
       <c r="B42" t="n">
-        <v>156100.0896310884</v>
+        <v>-19365.72418525372</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-49502.75228394364</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>106597.3373471447</v>
+        <v>-19365.72418525372</v>
       </c>
     </row>
     <row r="43">
@@ -2737,16 +2737,16 @@
         <v>71</v>
       </c>
       <c r="B43" t="n">
-        <v>192657.4876711559</v>
+        <v>14023.45544449417</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-57452.94055962908</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>135204.5471115268</v>
+        <v>14023.45544449417</v>
       </c>
     </row>
     <row r="44">
@@ -2754,16 +2754,16 @@
         <v>72</v>
       </c>
       <c r="B44" t="n">
-        <v>229214.8857112235</v>
+        <v>47412.63507424206</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-64569.14879160349</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>164645.73691962</v>
+        <v>47412.63507424206</v>
       </c>
     </row>
     <row r="45">
@@ -2771,16 +2771,16 @@
         <v>73</v>
       </c>
       <c r="B45" t="n">
-        <v>265772.283751291</v>
+        <v>80801.81470398995</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-70917.15210692432</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>194855.1316443667</v>
+        <v>80801.81470398995</v>
       </c>
     </row>
     <row r="46">
@@ -2788,16 +2788,16 @@
         <v>74</v>
       </c>
       <c r="B46" t="n">
-        <v>302329.6817913586</v>
+        <v>114190.9943337378</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-76561.14096757074</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>225768.5408237879</v>
+        <v>114190.9943337378</v>
       </c>
     </row>
     <row r="47">
@@ -2805,16 +2805,16 @@
         <v>75</v>
       </c>
       <c r="B47" t="n">
-        <v>338887.0798314262</v>
+        <v>147580.1739634857</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-81563.08412612753</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>257323.9957052987</v>
+        <v>147580.1739634857</v>
       </c>
     </row>
     <row r="48">
@@ -2822,16 +2822,16 @@
         <v>76</v>
       </c>
       <c r="B48" t="n">
-        <v>375444.4778714938</v>
+        <v>180969.3535932336</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-85982.22381839293</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>289462.2540531008</v>
+        <v>180969.3535932336</v>
       </c>
     </row>
     <row r="49">
@@ -2839,16 +2839,16 @@
         <v>77</v>
       </c>
       <c r="B49" t="n">
-        <v>412001.8759115613</v>
+        <v>214358.5332229815</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-89874.69481962708</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>322127.1810919342</v>
+        <v>214358.5332229815</v>
       </c>
     </row>
     <row r="50">
@@ -2856,16 +2856,16 @@
         <v>78</v>
       </c>
       <c r="B50" t="n">
-        <v>448559.2739516289</v>
+        <v>247747.7128527294</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-93293.25660606618</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>355266.0173455628</v>
+        <v>247747.7128527294</v>
       </c>
     </row>
     <row r="51">
@@ -2873,16 +2873,16 @@
         <v>79</v>
       </c>
       <c r="B51" t="n">
-        <v>485116.6719916964</v>
+        <v>281136.8924824773</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-96287.12634665254</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>388829.5456450438</v>
+        <v>281136.8924824773</v>
       </c>
     </row>
     <row r="52">
@@ -2890,16 +2890,16 @@
         <v>80</v>
       </c>
       <c r="B52" t="n">
-        <v>521674.070031764</v>
+        <v>314526.0721122252</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-98901.89968158532</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>422772.1703501787</v>
+        <v>314526.0721122252</v>
       </c>
     </row>
     <row r="53">
@@ -2907,16 +2907,16 @@
         <v>81</v>
       </c>
       <c r="B53" t="n">
-        <v>558231.4680718316</v>
+        <v>347915.2517419731</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-101179.5460952375</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>457051.9219765941</v>
+        <v>347915.2517419731</v>
       </c>
     </row>
     <row r="54">
@@ -2924,16 +2924,16 @@
         <v>82</v>
       </c>
       <c r="B54" t="n">
-        <v>594788.8661118991</v>
+        <v>381304.431371721</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-103158.4660327362</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>491630.400079163</v>
+        <v>381304.431371721</v>
       </c>
     </row>
     <row r="55">
@@ -2941,16 +2941,16 @@
         <v>83</v>
       </c>
       <c r="B55" t="n">
-        <v>631346.2641519668</v>
+        <v>414693.6110014688</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-104873.5976205384</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>526472.6665314283</v>
+        <v>414693.6110014688</v>
       </c>
     </row>
     <row r="56">
@@ -2958,16 +2958,16 @@
         <v>84</v>
       </c>
       <c r="B56" t="n">
-        <v>667903.6621920343</v>
+        <v>448082.7906312168</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-106356.5618219107</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>561547.1003701236</v>
+        <v>448082.7906312168</v>
       </c>
     </row>
     <row r="57">
@@ -2975,16 +2975,16 @@
         <v>85</v>
       </c>
       <c r="B57" t="n">
-        <v>704461.0602321018</v>
+        <v>481471.9702609646</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-107635.8359928798</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>596825.224239222</v>
+        <v>481471.9702609646</v>
       </c>
     </row>
     <row r="58">
@@ -2992,16 +2992,16 @@
         <v>86</v>
       </c>
       <c r="B58" t="n">
-        <v>741018.4582721695</v>
+        <v>514861.1498907126</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-108736.9470230487</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>632281.5112491207</v>
+        <v>514861.1498907126</v>
       </c>
     </row>
     <row r="59">
@@ -3009,16 +3009,16 @@
         <v>87</v>
       </c>
       <c r="B59" t="n">
-        <v>777575.856312237</v>
+        <v>548250.3295204605</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-109682.6764842579</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>667893.1798279791</v>
+        <v>548250.3295204605</v>
       </c>
     </row>
     <row r="60">
@@ -3026,16 +3026,16 @@
         <v>88</v>
       </c>
       <c r="B60" t="n">
-        <v>814133.2543523046</v>
+        <v>581639.5091502083</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-110493.2714186543</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>703639.9829336504</v>
+        <v>581639.5091502083</v>
       </c>
     </row>
     <row r="61">
@@ -3043,16 +3043,16 @@
         <v>89</v>
       </c>
       <c r="B61" t="n">
-        <v>850690.6523923721</v>
+        <v>615028.6887799562</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-111186.6555398443</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>739503.9968525278</v>
+        <v>615028.6887799562</v>
       </c>
     </row>
     <row r="62">
@@ -3060,16 +3060,16 @@
         <v>90</v>
       </c>
       <c r="B62" t="n">
-        <v>887248.0504324398</v>
+        <v>648417.8684097041</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-111778.636671542</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>775469.4137608977</v>
+        <v>648417.8684097041</v>
       </c>
     </row>
     <row r="63">
@@ -3077,16 +3077,16 @@
         <v>91</v>
       </c>
       <c r="B63" t="n">
-        <v>923805.4484725072</v>
+        <v>681807.0480394519</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-112283.1071922897</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>811522.3412802175</v>
+        <v>681807.0480394519</v>
       </c>
     </row>
     <row r="64">
@@ -3094,16 +3094,16 @@
         <v>92</v>
       </c>
       <c r="B64" t="n">
-        <v>960362.8465125748</v>
+        <v>715196.2276691998</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-112712.2350851283</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>847650.6114274465</v>
+        <v>715196.2276691998</v>
       </c>
     </row>
     <row r="65">
@@ -3111,16 +3111,16 @@
         <v>93</v>
       </c>
       <c r="B65" t="n">
-        <v>996920.2445526423</v>
+        <v>748585.4072989478</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-113076.6439064356</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>883843.6006462068</v>
+        <v>748585.4072989478</v>
       </c>
     </row>
     <row r="66">
@@ -3128,16 +3128,16 @@
         <v>94</v>
       </c>
       <c r="B66" t="n">
-        <v>1033477.64259271</v>
+        <v>781974.5869286957</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-113385.5805919984</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>920092.0620007116</v>
+        <v>781974.5869286957</v>
       </c>
     </row>
     <row r="67">
@@ -3145,16 +3145,16 @@
         <v>95</v>
       </c>
       <c r="B67" t="n">
-        <v>1070035.040632778</v>
+        <v>815363.7665584435</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-113647.0705175615</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>956387.9701152161</v>
+        <v>815363.7665584435</v>
       </c>
     </row>
     <row r="68">
@@ -3162,16 +3162,16 @@
         <v>96</v>
       </c>
       <c r="B68" t="n">
-        <v>1106592.438672845</v>
+        <v>848752.9461881914</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-113868.0596344765</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>992724.3790383685</v>
+        <v>848752.9461881914</v>
       </c>
     </row>
     <row r="69">
@@ -3179,16 +3179,16 @@
         <v>97</v>
       </c>
       <c r="B69" t="n">
-        <v>1143149.836712913</v>
+        <v>882142.1258179394</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-114054.5438188206</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>1029095.292894092</v>
+        <v>882142.1258179394</v>
       </c>
     </row>
     <row r="70">
@@ -3196,16 +3196,16 @@
         <v>98</v>
       </c>
       <c r="B70" t="n">
-        <v>1179707.23475298</v>
+        <v>915531.3054476872</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-114211.6858150717</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>1065495.548937909</v>
+        <v>915531.3054476872</v>
       </c>
     </row>
     <row r="71">
@@ -3213,16 +3213,16 @@
         <v>99</v>
       </c>
       <c r="B71" t="n">
-        <v>1216264.632793048</v>
+        <v>948920.485077435</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-114343.9203336963</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>1101920.712459351</v>
+        <v>948920.485077435</v>
       </c>
     </row>
     <row r="72">
@@ -3230,16 +3230,16 @@
         <v>100</v>
       </c>
       <c r="B72" t="n">
-        <v>1252822.030833115</v>
+        <v>982309.664707183</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-114455.0479859319</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>1138366.982847183</v>
+        <v>982309.664707183</v>
       </c>
     </row>
   </sheetData>
@@ -3293,16 +3293,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-914858.7112627907</v>
+        <v>-838957.4106661081</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>605957.8243838988</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-308900.886878892</v>
+        <v>-838957.4106661081</v>
       </c>
     </row>
     <row r="3">
@@ -3310,16 +3310,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-855336.3487863566</v>
+        <v>-778251.3751620481</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>551130.4660596167</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-304205.88272674</v>
+        <v>-778251.3751620481</v>
       </c>
     </row>
     <row r="4">
@@ -3327,16 +3327,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-795813.9863099226</v>
+        <v>-717545.3396579883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>497662.4848918727</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-298151.5014180499</v>
+        <v>-717545.3396579883</v>
       </c>
     </row>
     <row r="5">
@@ -3344,16 +3344,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-736291.6238334887</v>
+        <v>-656839.3041539284</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>445786.2405809824</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-290505.3832525063</v>
+        <v>-656839.3041539284</v>
       </c>
     </row>
     <row r="6">
@@ -3361,16 +3361,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-676769.2613570547</v>
+        <v>-596133.2686498684</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>395724.9037106248</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-281044.3576464299</v>
+        <v>-596133.2686498684</v>
       </c>
     </row>
     <row r="7">
@@ -3378,16 +3378,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-617246.8988806206</v>
+        <v>-535427.2331458085</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>347683.810538021</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-269563.0883425996</v>
+        <v>-535427.2331458085</v>
       </c>
     </row>
     <row r="8">
@@ -3395,16 +3395,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-557724.5364041866</v>
+        <v>-474721.1976417486</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>301843.1137891295</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-255881.4226150571</v>
+        <v>-474721.1976417486</v>
       </c>
     </row>
     <row r="9">
@@ -3412,16 +3412,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-498202.1739277526</v>
+        <v>-414015.1621376887</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>258352.1281599738</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-239850.0457677788</v>
+        <v>-414015.1621376887</v>
       </c>
     </row>
     <row r="10">
@@ -3429,16 +3429,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-438679.8114513186</v>
+        <v>-353309.1266336287</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>217325.5660745473</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-221354.2453767713</v>
+        <v>-353309.1266336287</v>
       </c>
     </row>
     <row r="11">
@@ -3446,16 +3446,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-379157.4489748845</v>
+        <v>-292603.0911295689</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>178841.6754226793</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-200315.7735522052</v>
+        <v>-292603.0911295689</v>
       </c>
     </row>
     <row r="12">
@@ -3463,16 +3463,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-319635.0864984505</v>
+        <v>-231897.0556255089</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>142942.1428786252</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-176692.9436198253</v>
+        <v>-231897.0556255089</v>
       </c>
     </row>
     <row r="13">
@@ -3480,16 +3480,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-260112.7240220165</v>
+        <v>-171191.020121449</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>109633.5213547206</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-150479.2026672959</v>
+        <v>-171191.020121449</v>
       </c>
     </row>
     <row r="14">
@@ -3497,16 +3497,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-200590.3615455825</v>
+        <v>-110484.9846173891</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>78889.87830460821</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-121700.4832409743</v>
+        <v>-110484.9846173891</v>
       </c>
     </row>
     <row r="15">
@@ -3514,16 +3514,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-141067.9990691485</v>
+        <v>-49778.94911332915</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>50656.33810032537</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-90411.6609688231</v>
+        <v>-49778.94911332915</v>
       </c>
     </row>
     <row r="16">
@@ -3531,16 +3531,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-81545.63659271445</v>
+        <v>10927.08639073077</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>24853.19891416992</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-56692.43767854453</v>
+        <v>10927.08639073077</v>
       </c>
     </row>
     <row r="17">
@@ -3548,16 +3548,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>-22023.27411628044</v>
+        <v>71633.12189479069</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1380.33380489536</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-20642.94031138508</v>
+        <v>71633.12189479069</v>
       </c>
     </row>
     <row r="18">
@@ -3565,16 +3565,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>37499.08836015358</v>
+        <v>132339.1573988506</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-19878.37126932521</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>17620.71709082838</v>
+        <v>132339.1573988506</v>
       </c>
     </row>
     <row r="19">
@@ -3582,16 +3582,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>97021.4508365876</v>
+        <v>193045.1929029105</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-39050.74018248932</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>57970.71065409828</v>
+        <v>193045.1929029105</v>
       </c>
     </row>
     <row r="20">
@@ -3599,16 +3599,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>156543.8133130216</v>
+        <v>253751.2284069704</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-56272.33724385127</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>100271.4760691703</v>
+        <v>253751.2284069704</v>
       </c>
     </row>
     <row r="21">
@@ -3616,16 +3616,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>216066.1757894557</v>
+        <v>314457.2639110303</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-71682.90536029624</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>144383.2704291594</v>
+        <v>314457.2639110303</v>
       </c>
     </row>
     <row r="22">
@@ -3633,16 +3633,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>275588.5382658896</v>
+        <v>375163.2994150903</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-85423.26968164308</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>190165.2685842465</v>
+        <v>375163.2994150903</v>
       </c>
     </row>
     <row r="23">
@@ -3650,16 +3650,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>335110.9007423237</v>
+        <v>435869.3349191502</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-97632.7298998301</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>237478.1708424936</v>
+        <v>435869.3349191502</v>
       </c>
     </row>
     <row r="24">
@@ -3667,16 +3667,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>394633.2632187577</v>
+        <v>496575.3704232101</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-108446.9370170298</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>286186.3262017278</v>
+        <v>496575.3704232101</v>
       </c>
     </row>
     <row r="25">
@@ -3684,16 +3684,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>454155.6256951917</v>
+        <v>557281.4059272701</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-117996.2301502718</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>336159.3955449199</v>
+        <v>557281.4059272701</v>
       </c>
     </row>
     <row r="26">
@@ -3701,16 +3701,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>513677.9881716256</v>
+        <v>617987.4414313299</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-126404.3950831961</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>387273.5930884296</v>
+        <v>617987.4414313299</v>
       </c>
     </row>
     <row r="27">
@@ -3718,16 +3718,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>573200.3506480597</v>
+        <v>678693.4769353899</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-133787.7978599046</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>439412.5527881552</v>
+        <v>678693.4769353899</v>
       </c>
     </row>
     <row r="28">
@@ -3735,16 +3735,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>632722.7131244937</v>
+        <v>739399.5124394498</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-140254.8427107897</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>492467.870413704</v>
+        <v>739399.5124394498</v>
       </c>
     </row>
     <row r="29">
@@ -3752,16 +3752,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>692245.0756009278</v>
+        <v>800105.5479435096</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-145905.7029976203</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>546339.3726033075</v>
+        <v>800105.5479435096</v>
       </c>
     </row>
     <row r="30">
@@ -3769,16 +3769,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>751767.4380773618</v>
+        <v>860811.5834475696</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-150832.2757461435</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>600935.1623312182</v>
+        <v>860811.5834475696</v>
       </c>
     </row>
     <row r="31">
@@ -3786,16 +3786,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>811289.8005537959</v>
+        <v>921517.6189516296</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-155118.3139052948</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>656171.4866485011</v>
+        <v>921517.6189516296</v>
       </c>
     </row>
     <row r="32">
@@ -3803,16 +3803,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>870812.1630302299</v>
+        <v>982223.6544556894</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-158839.6950780675</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>711972.4679521624</v>
+        <v>982223.6544556894</v>
       </c>
     </row>
     <row r="33">
@@ -3820,16 +3820,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>930334.5255066638</v>
+        <v>1042929.689959749</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-162064.7905932114</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>768269.7349134525</v>
+        <v>1042929.689959749</v>
       </c>
     </row>
     <row r="34">
@@ -3837,16 +3837,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>989856.8879830979</v>
+        <v>1103635.725463809</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-164854.904038811</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>825001.9839442868</v>
+        <v>1103635.725463809</v>
       </c>
     </row>
     <row r="35">
@@ -3854,16 +3854,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>1049379.250459532</v>
+        <v>1164341.760967869</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-167264.7534784062</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>882114.4969811258</v>
+        <v>1164341.760967869</v>
       </c>
     </row>
     <row r="36">
@@ -3871,16 +3871,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>1108901.612935966</v>
+        <v>1225047.796471929</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-169342.9763297157</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>939558.6366062502</v>
+        <v>1225047.796471929</v>
       </c>
     </row>
     <row r="37">
@@ -3888,16 +3888,16 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>1168423.9754124</v>
+        <v>1285753.831975989</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-171132.6401909281</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>997291.335221472</v>
+        <v>1285753.831975989</v>
       </c>
     </row>
     <row r="38">
@@ -3905,16 +3905,16 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>1227946.337888834</v>
+        <v>1346459.867480049</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-172671.7466924934</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1055274.591196341</v>
+        <v>1346459.867480049</v>
       </c>
     </row>
     <row r="39">
@@ -3922,16 +3922,16 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>1287468.700365268</v>
+        <v>1407165.902984109</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-173993.7187179346</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1113474.981647334</v>
+        <v>1407165.902984109</v>
       </c>
     </row>
     <row r="40">
@@ -3939,16 +3939,16 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>1346991.062841702</v>
+        <v>1467871.938488169</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-175127.8640894653</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1171863.198752237</v>
+        <v>1467871.938488169</v>
       </c>
     </row>
     <row r="41">
@@ -3956,16 +3956,16 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>1406513.425318136</v>
+        <v>1528577.973992229</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-176099.8110867166</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1230413.614231419</v>
+        <v>1528577.973992229</v>
       </c>
     </row>
     <row r="42">
@@ -3973,16 +3973,16 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>1466035.78779457</v>
+        <v>1589284.009496289</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-176931.9130048329</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>1289103.874789737</v>
+        <v>1589284.009496289</v>
       </c>
     </row>
     <row r="43">
@@ -3990,16 +3990,16 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>1525558.150271004</v>
+        <v>1649990.045000348</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-177643.6204124739</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1347914.52985853</v>
+        <v>1649990.045000348</v>
       </c>
     </row>
     <row r="44">
@@ -4007,16 +4007,16 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>1585080.512747438</v>
+        <v>1710696.080504408</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-178251.8208932146</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1406828.691854224</v>
+        <v>1710696.080504408</v>
       </c>
     </row>
     <row r="45">
@@ -4024,16 +4024,16 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>1644602.875223872</v>
+        <v>1771402.116008468</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-178771.1468962623</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>1465831.72832761</v>
+        <v>1771402.116008468</v>
       </c>
     </row>
     <row r="46">
@@ -4041,16 +4041,16 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>1704125.237700306</v>
+        <v>1832108.151512528</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-179214.2529317193</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1524910.984768587</v>
+        <v>1832108.151512528</v>
       </c>
     </row>
     <row r="47">
@@ -4058,16 +4058,16 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>1763647.60017674</v>
+        <v>1892814.187016588</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-179592.0637646738</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>1584055.536412066</v>
+        <v>1892814.187016588</v>
       </c>
     </row>
   </sheetData>
@@ -4121,16 +4121,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-671196.6210704048</v>
+        <v>-637370.3534764132</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>484680.1720713464</v>
+        <v>395433.3003174835</v>
       </c>
       <c r="E2" t="n">
-        <v>-186516.4489990584</v>
+        <v>-241937.0531589296</v>
       </c>
     </row>
     <row r="3">
@@ -4138,16 +4138,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-602143.4707545195</v>
+        <v>-569129.4162733712</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>420080.5347289233</v>
+        <v>340410.3778311033</v>
       </c>
       <c r="E3" t="n">
-        <v>-182062.9360255961</v>
+        <v>-228719.0384422679</v>
       </c>
     </row>
     <row r="4">
@@ -4155,16 +4155,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-533090.3204386343</v>
+        <v>-500888.4790703291</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>357477.5364547376</v>
+        <v>288052.7431851209</v>
       </c>
       <c r="E4" t="n">
-        <v>-175612.7839838967</v>
+        <v>-212835.7358852082</v>
       </c>
     </row>
     <row r="5">
@@ -4172,16 +4172,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-464037.1701227489</v>
+        <v>-432647.541867287</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>297444.2212216699</v>
+        <v>238555.3769936535</v>
       </c>
       <c r="E5" t="n">
-        <v>-166592.9489010791</v>
+        <v>-194092.1648736334</v>
       </c>
     </row>
     <row r="6">
@@ -4189,16 +4189,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-394984.0198068637</v>
+        <v>-364406.6046642449</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>240551.8481922082</v>
+        <v>192063.7205314947</v>
       </c>
       <c r="E6" t="n">
-        <v>-154432.1716146555</v>
+        <v>-172342.8841327502</v>
       </c>
     </row>
     <row r="7">
@@ -4206,16 +4206,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-325930.8694909784</v>
+        <v>-296165.6674612028</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>187323.9676531148</v>
+        <v>148671.4523863389</v>
       </c>
       <c r="E7" t="n">
-        <v>-138606.9018378636</v>
+        <v>-147494.2150748639</v>
       </c>
     </row>
     <row r="8">
@@ -4223,16 +4223,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-256877.7191750931</v>
+        <v>-227924.7302581607</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>138194.8994743113</v>
+        <v>108421.1023794573</v>
       </c>
       <c r="E8" t="n">
-        <v>-118682.8197007818</v>
+        <v>-119503.6278787035</v>
       </c>
     </row>
     <row r="9">
@@ -4240,16 +4240,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-187824.5688592079</v>
+        <v>-159683.7930551187</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>93478.3783495051</v>
+        <v>71307.00388162635</v>
       </c>
       <c r="E9" t="n">
-        <v>-94346.19050970275</v>
+        <v>-88376.78917349235</v>
       </c>
     </row>
     <row r="10">
@@ -4257,16 +4257,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-118771.4185433226</v>
+        <v>-91442.85585207661</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>53349.7672786801</v>
+        <v>37280.00433364924</v>
       </c>
       <c r="E10" t="n">
-        <v>-65421.65126464247</v>
+        <v>-54162.85151842737</v>
       </c>
     </row>
     <row r="11">
@@ -4274,16 +4274,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-49718.26822743731</v>
+        <v>-23201.91864903453</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>17842.59897202722</v>
+        <v>6253.346547879003</v>
       </c>
       <c r="E11" t="n">
-        <v>-31875.66925541009</v>
+        <v>-16948.57210115553</v>
       </c>
     </row>
     <row r="12">
@@ -4291,16 +4291,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>19334.88208844795</v>
+        <v>45039.01855400753</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-13142.07976064665</v>
+        <v>-21890.82040965134</v>
       </c>
       <c r="E12" t="n">
-        <v>6192.802327801299</v>
+        <v>23148.1981443562</v>
       </c>
     </row>
     <row r="13">
@@ -4308,16 +4308,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>88388.03240433322</v>
+        <v>113279.9557570496</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-39816.62686601109</v>
+        <v>-47294.7625231089</v>
       </c>
       <c r="E13" t="n">
-        <v>48571.40553832213</v>
+        <v>65985.19323394069</v>
       </c>
     </row>
     <row r="14">
@@ -4325,16 +4325,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>157441.1827202185</v>
+        <v>181520.8929600917</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-62481.73979584958</v>
+        <v>-70118.68080640152</v>
       </c>
       <c r="E14" t="n">
-        <v>94959.44292436892</v>
+        <v>111402.2121536902</v>
       </c>
     </row>
     <row r="15">
@@ -4342,16 +4342,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>226494.3330361038</v>
+        <v>249761.8301631338</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-81499.09401801677</v>
+        <v>-90534.69869785734</v>
       </c>
       <c r="E15" t="n">
-        <v>144995.239018087</v>
+        <v>159227.1314652764</v>
       </c>
     </row>
     <row r="16">
@@ -4359,16 +4359,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>295547.483351989</v>
+        <v>318002.7673661758</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-97264.78135415711</v>
+        <v>-108721.4946121079</v>
       </c>
       <c r="E16" t="n">
-        <v>198282.7019978319</v>
+        <v>209281.272754068</v>
       </c>
     </row>
     <row r="17">
@@ -4376,16 +4376,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>364600.6336678743</v>
+        <v>386243.7045692179</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-110185.7796708344</v>
+        <v>-124859.6786735902</v>
       </c>
       <c r="E17" t="n">
-        <v>254414.8539970398</v>
+        <v>261384.0258956277</v>
       </c>
     </row>
     <row r="18">
@@ -4393,16 +4393,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>433653.7839837595</v>
+        <v>454484.64177226</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-120660.7687640197</v>
+        <v>-139127.9487748597</v>
       </c>
       <c r="E18" t="n">
-        <v>312993.0152197398</v>
+        <v>315356.6929974003</v>
       </c>
     </row>
     <row r="19">
@@ -4410,16 +4410,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>502706.9342996448</v>
+        <v>522725.578975302</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-129065.7933868582</v>
+        <v>-151700.0124434913</v>
       </c>
       <c r="E19" t="n">
-        <v>373641.1409127866</v>
+        <v>371025.5665318107</v>
       </c>
     </row>
     <row r="20">
@@ -4427,16 +4427,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>571760.0846155301</v>
+        <v>590966.516178344</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-135744.6471905568</v>
+        <v>-162742.2265154482</v>
       </c>
       <c r="E20" t="n">
-        <v>436015.4374249733</v>
+        <v>428224.2896628958</v>
       </c>
     </row>
     <row r="21">
@@ -4444,16 +4444,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>640813.2349314153</v>
+        <v>659207.4533813862</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-141003.4351137253</v>
+        <v>-172411.8844296725</v>
       </c>
       <c r="E21" t="n">
-        <v>499809.79981769</v>
+        <v>486795.5689517137</v>
       </c>
     </row>
     <row r="22">
@@ -4461,16 +4461,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>709866.3852473006</v>
+        <v>727448.3905844283</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-145108.5495792029</v>
+        <v>-180856.0688489396</v>
       </c>
       <c r="E22" t="n">
-        <v>564757.8356680977</v>
+        <v>546592.3217354887</v>
       </c>
     </row>
     <row r="23">
@@ -4478,16 +4478,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>778919.5355631858</v>
+        <v>795689.3277874703</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-148287.228503409</v>
+        <v>-188210.9830113729</v>
       </c>
       <c r="E23" t="n">
-        <v>630632.3070597767</v>
+        <v>607478.3447760975</v>
       </c>
     </row>
     <row r="24">
@@ -4495,16 +4495,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>847972.685879071</v>
+        <v>863930.2649905123</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-150729.9041077217</v>
+        <v>-194601.6756307084</v>
       </c>
       <c r="E24" t="n">
-        <v>697242.7817713493</v>
+        <v>669328.5893598038</v>
       </c>
     </row>
     <row r="25">
@@ -4512,16 +4512,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>917025.8361949564</v>
+        <v>932171.2021935545</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-152593.6571966161</v>
+        <v>-200142.0794778955</v>
       </c>
       <c r="E25" t="n">
-        <v>764432.1789983404</v>
+        <v>732029.122715659</v>
       </c>
     </row>
     <row r="26">
@@ -4529,16 +4529,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>986078.9865108416</v>
+        <v>1000412.139396597</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-154006.2264981869</v>
+        <v>-204935.2915041436</v>
       </c>
       <c r="E26" t="n">
-        <v>832072.7600126547</v>
+        <v>795476.847892453</v>
       </c>
     </row>
     <row r="27">
@@ -4546,16 +4546,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>1055132.136826727</v>
+        <v>1068653.076599639</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-155070.1614003044</v>
+        <v>-209074.0313434482</v>
       </c>
       <c r="E27" t="n">
-        <v>900061.9754264224</v>
+        <v>859579.0452561905</v>
       </c>
     </row>
     <row r="28">
@@ -4563,16 +4563,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>1124185.287142612</v>
+        <v>1136894.013802681</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-155866.8329569464</v>
+        <v>-212641.2243961359</v>
       </c>
       <c r="E28" t="n">
-        <v>968318.4541856658</v>
+        <v>924252.7894065448</v>
       </c>
     </row>
     <row r="29">
@@ -4580,16 +4580,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>1193238.437458497</v>
+        <v>1205134.951005723</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-156460.1240941833</v>
+        <v>-215710.664835167</v>
       </c>
       <c r="E29" t="n">
-        <v>1036778.313364314</v>
+        <v>989424.2861705556</v>
       </c>
     </row>
     <row r="30">
@@ -4597,16 +4597,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>1262291.587774383</v>
+        <v>1273375.888208765</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-156899.7028263408</v>
+        <v>-218347.7223947377</v>
       </c>
       <c r="E30" t="n">
-        <v>1105391.884948042</v>
+        <v>1055028.165814027</v>
       </c>
     </row>
     <row r="31">
@@ -4614,16 +4614,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>1331344.738090268</v>
+        <v>1341616.825411807</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-157223.8429272576</v>
+        <v>-220610.0644612451</v>
       </c>
       <c r="E31" t="n">
-        <v>1174120.89516301</v>
+        <v>1121006.760950562</v>
       </c>
     </row>
     <row r="32">
@@ -4631,16 +4631,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>1400397.888406153</v>
+        <v>1409857.762614849</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-157461.7978128111</v>
+        <v>-222548.3716783546</v>
       </c>
       <c r="E32" t="n">
-        <v>1242936.090593342</v>
+        <v>1187309.390936494</v>
       </c>
     </row>
     <row r="33">
@@ -4648,16 +4648,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>1469451.038722039</v>
+        <v>1478098.699817891</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-157635.7591207619</v>
+        <v>-224207.0309774848</v>
       </c>
       <c r="E33" t="n">
-        <v>1311815.279601277</v>
+        <v>1253891.668840406</v>
       </c>
     </row>
     <row r="34">
@@ -4665,16 +4665,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>1538504.189037924</v>
+        <v>1546339.637020933</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-157762.4454134892</v>
+        <v>-225624.7946890393</v>
       </c>
       <c r="E34" t="n">
-        <v>1380741.743624435</v>
+        <v>1320714.842331894</v>
       </c>
     </row>
     <row r="35">
@@ -4682,16 +4682,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>1607557.339353809</v>
+        <v>1614580.574223975</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-157854.3719795335</v>
+        <v>-226835.3982522034</v>
       </c>
       <c r="E35" t="n">
-        <v>1449702.967374275</v>
+        <v>1387745.175971772</v>
       </c>
     </row>
     <row r="36">
@@ -4699,16 +4699,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>1676610.489669694</v>
+        <v>1682821.511427017</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-157920.8526825265</v>
+        <v>-227868.1321167318</v>
       </c>
       <c r="E36" t="n">
-        <v>1518689.636987168</v>
+        <v>1454953.379310286</v>
       </c>
     </row>
   </sheetData>
